--- a/Quick.Assistant.Excel.Test/Embeds/template.xlsx
+++ b/Quick.Assistant.Excel.Test/Embeds/template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet_1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Column1</t>
   </si>
@@ -29,13 +30,19 @@
   </si>
   <si>
     <t>Column5</t>
+  </si>
+  <si>
+    <t>Sheet - 1</t>
+  </si>
+  <si>
+    <t>Sheet - 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +53,15 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -73,9 +89,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,7 +158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,7 +193,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,25 +415,86 @@
     <col min="4" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>